--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Payroll Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Downloads\Payroll Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{430C9ED2-5A0C-4F4B-B220-CD26C67346CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C48BBE-B685-4C41-9006-A9F729C7FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
+    <sheet name="CCTA" sheetId="2" r:id="rId2"/>
+    <sheet name="LATVA" sheetId="3" r:id="rId3"/>
+    <sheet name="TOTAL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>CCCTA</t>
   </si>
@@ -78,18 +81,43 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <t>Difference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Recent - Old)</t>
+    </r>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +154,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,13 +176,169 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -155,15 +347,107 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -183,10 +467,1848 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-97D9-4ABA-9DDF-62791E8F28BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-97D9-4ABA-9DDF-62791E8F28BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>CCTA!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1-Recent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCTA!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CCTA!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7876-4745-9436-A92105ADA741}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="484128095"/>
+        <c:axId val="484129055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="484128095"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484129055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484129055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484128095"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-D519-4909-A514-F9D4FC3880CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D519-4909-A514-F9D4FC3880CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>CCTA!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1-Recent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCTA!$E$3:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1992.6800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019.0620000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D519-4909-A514-F9D4FC3880CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="484128095"/>
+        <c:axId val="484129055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="484128095"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484129055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484129055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484128095"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47F8471-3849-D616-3A4B-216CB4A3DBC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C0F107-CA40-415C-8247-8E4D85D7EE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +2346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +2452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +2594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,411 +2602,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2FC7D3-5A2C-49BD-ABA2-4105D058A6A2}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1802</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1992.6800000000003</v>
       </c>
-      <c r="G3" s="5">
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
         <v>63732.798362706781</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2">
+        <v>1852</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2019.0620000000001</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8">
+        <v>64687.625907531336</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="39">
+        <f>C3-C4</f>
+        <v>-50</v>
+      </c>
+      <c r="D5" s="40">
+        <f>D3-D4</f>
+        <v>-26.381999999999834</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" ref="E5:G5" si="0">E3-E4</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="0"/>
+        <v>-954.82754482455493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>IF(C3&gt;C4, "Increased", IF(C3&lt;C4, "Decreased", "No Change"))</f>
+        <v>Decreased</v>
+      </c>
+      <c r="D6" s="21" t="str">
+        <f t="shared" ref="D6:G6" si="1">IF(D3&gt;D4, "Increased", IF(D3&lt;D4, "Decreased", "No Change"))</f>
+        <v>Decreased</v>
+      </c>
+      <c r="E6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Increased</v>
+      </c>
+      <c r="F6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>No Change</v>
+      </c>
+      <c r="G6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Decreased</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="2">
         <v>1272</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>901.94200000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4">
         <v>29229.5741925</v>
       </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="2">
+        <v>1278</v>
+      </c>
+      <c r="D11">
+        <v>882.46900000000005</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8">
+        <v>28659.208088333336</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="22">
+        <f>C10-C11</f>
+        <v>-6</v>
+      </c>
+      <c r="D12" s="41">
+        <f>D10-D11</f>
+        <v>19.472999999999956</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" ref="E12:G12" si="2">E10-E11</f>
+        <v>-1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="2"/>
+        <v>570.36610416666372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="21" t="str">
+        <f>IF(C10&gt;C11, "Increased", IF(C10&lt;C11, "Decreased", "No Change"))</f>
+        <v>Decreased</v>
+      </c>
+      <c r="D13" s="21" t="str">
+        <f t="shared" ref="D13:G13" si="3">IF(D10&gt;D11, "Increased", IF(D10&lt;D11, "Decreased", "No Change"))</f>
+        <v>Increased</v>
+      </c>
+      <c r="E13" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Decreased</v>
+      </c>
+      <c r="F13" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>No Change</v>
+      </c>
+      <c r="G13" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Increased</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
-        <f>SUM(C3,C9)</f>
+      <c r="C17" s="9">
+        <f>SUM(C3,C10)</f>
         <v>3074</v>
       </c>
-      <c r="D15" s="3">
-        <f>SUM(D3,D9)</f>
+      <c r="D17" s="10">
+        <f>SUM(D3,D10)</f>
         <v>2894.6220000000003</v>
       </c>
-      <c r="G15" s="5">
-        <f>SUM(G3,G9)</f>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="29">
+        <f>SUM(G3,G10)</f>
         <v>92962.372555206777</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
+      <c r="C18" s="11">
+        <f>SUM(C4,C11)</f>
+        <v>3130</v>
+      </c>
+      <c r="D18" s="12">
+        <f>SUM(D4,D11)</f>
+        <v>2901.5309999999999</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(G4,G11)</f>
+        <v>93346.833995864668</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="30">
+        <f>C17-C18</f>
+        <v>-56</v>
+      </c>
+      <c r="D19" s="34">
+        <f>D17-D18</f>
+        <v>-6.9089999999996508</v>
+      </c>
+      <c r="E19" s="31">
         <v>0</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" ref="G19" si="4">G17-G18</f>
+        <v>-384.46144065789122</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="28" t="str">
+        <f>IF(C17&gt;C18, "Increased", IF(C17&lt;C18, "Decreased", "No Change"))</f>
+        <v>Decreased</v>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f t="shared" ref="D20:G20" si="5">IF(D17&gt;D18, "Increased", IF(D17&lt;D18, "Decreased", "No Change"))</f>
+        <v>Decreased</v>
+      </c>
+      <c r="E20" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>No Change</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>No Change</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>Decreased</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1802</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1992.6800000000003</v>
-      </c>
-      <c r="E23">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5">
-        <v>63732.798362706781</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1272</v>
-      </c>
-      <c r="D29">
-        <v>901.94200000000001</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>14</v>
-      </c>
-      <c r="G29" s="5">
-        <v>29229.5741925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3">
-        <f>SUM(C23,C29)</f>
-        <v>3074</v>
-      </c>
-      <c r="D35" s="3">
-        <f>SUM(D23,D29)</f>
-        <v>2894.6220000000003</v>
-      </c>
-      <c r="E35">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>14</v>
-      </c>
-      <c r="G35" s="5">
-        <f>SUM(G23,G29)</f>
-        <v>92962.372555206777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9212603-7EB8-4405-B19B-098C45E83CFF}">
+  <dimension ref="A2:G26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1802</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1992.6800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1852</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2019.0620000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="38">
+        <f>B3-B4</f>
+        <v>-50</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="37">
+        <f>E3-E4</f>
+        <v>-26.381999999999834</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E85382-04FF-4EE3-8359-A2018DEA0D02}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A147E11-B383-49BC-99BB-E9781E9EC108}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Downloads\Payroll Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Payroll Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C48BBE-B685-4C41-9006-A9F729C7FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57845CFD-E4B2-4052-952C-FD72DF8C793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -421,12 +421,6 @@
     <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -442,11 +436,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2306,9 +2306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2346,7 +2346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2452,7 +2452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2594,7 +2594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2602,10 +2602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2FC7D3-5A2C-49BD-ABA2-4105D058A6A2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,18 +2614,38 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2699,23 +2720,23 @@
       <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="37">
         <f>C3-C4</f>
         <v>-50</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <f>D3-D4</f>
         <v>-26.381999999999834</v>
       </c>
       <c r="E5" s="19">
-        <f t="shared" ref="E5:G5" si="0">E3-E4</f>
+        <f>E3-E4</f>
         <v>2</v>
       </c>
       <c r="F5" s="20">
         <v>0</v>
       </c>
       <c r="G5" s="25">
-        <f t="shared" si="0"/>
+        <f>G3-G4</f>
         <v>-954.82754482455493</v>
       </c>
     </row>
@@ -2728,19 +2749,19 @@
         <v>Decreased</v>
       </c>
       <c r="D6" s="21" t="str">
-        <f t="shared" ref="D6:G6" si="1">IF(D3&gt;D4, "Increased", IF(D3&lt;D4, "Decreased", "No Change"))</f>
+        <f>IF(D3&gt;D4, "Increased", IF(D3&lt;D4, "Decreased", "No Change"))</f>
         <v>Decreased</v>
       </c>
       <c r="E6" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E3&gt;E4, "Increased", IF(E3&lt;E4, "Decreased", "No Change"))</f>
         <v>Increased</v>
       </c>
       <c r="F6" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F3&gt;F4, "Increased", IF(F3&lt;F4, "Decreased", "No Change"))</f>
         <v>No Change</v>
       </c>
       <c r="G6" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(G3&gt;G4, "Increased", IF(G3&lt;G4, "Decreased", "No Change"))</f>
         <v>Decreased</v>
       </c>
     </row>
@@ -2750,15 +2771,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2840,19 +2861,19 @@
         <f>C10-C11</f>
         <v>-6</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <f>D10-D11</f>
         <v>19.472999999999956</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" ref="E12:G12" si="2">E10-E11</f>
+        <f t="shared" ref="E12:G12" si="0">E10-E11</f>
         <v>-1</v>
       </c>
       <c r="F12" s="23">
         <v>0</v>
       </c>
       <c r="G12" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>570.36610416666372</v>
       </c>
     </row>
@@ -2865,19 +2886,19 @@
         <v>Decreased</v>
       </c>
       <c r="D13" s="21" t="str">
-        <f t="shared" ref="D13:G13" si="3">IF(D10&gt;D11, "Increased", IF(D10&lt;D11, "Decreased", "No Change"))</f>
+        <f t="shared" ref="D13:G13" si="1">IF(D10&gt;D11, "Increased", IF(D10&lt;D11, "Decreased", "No Change"))</f>
         <v>Increased</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Decreased</v>
       </c>
       <c r="F13" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>No Change</v>
       </c>
       <c r="G13" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Increased</v>
       </c>
     </row>
@@ -2890,15 +2911,15 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2994,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="33">
-        <f t="shared" ref="G19" si="4">G17-G18</f>
+        <f t="shared" ref="G19" si="2">G17-G18</f>
         <v>-384.46144065789122</v>
       </c>
     </row>
@@ -3007,19 +3028,19 @@
         <v>Decreased</v>
       </c>
       <c r="D20" s="28" t="str">
-        <f t="shared" ref="D20:G20" si="5">IF(D17&gt;D18, "Increased", IF(D17&lt;D18, "Decreased", "No Change"))</f>
+        <f t="shared" ref="D20:G20" si="3">IF(D17&gt;D18, "Increased", IF(D17&lt;D18, "Decreased", "No Change"))</f>
         <v>Decreased</v>
       </c>
       <c r="E20" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>No Change</v>
       </c>
       <c r="F20" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>No Change</v>
       </c>
       <c r="G20" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Decreased</v>
       </c>
     </row>
@@ -3064,10 +3085,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9212603-7EB8-4405-B19B-098C45E83CFF}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,26 +3101,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9">
         <v>1802</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="10">
@@ -3106,13 +3128,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9">
         <v>1852</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="10">
@@ -3123,14 +3145,14 @@
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <f>B3-B4</f>
         <v>-50</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="35">
         <f>E3-E4</f>
         <v>-26.381999999999834</v>
       </c>
@@ -3145,7 +3167,7 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="16" t="s">
@@ -3153,7 +3175,7 @@
       </c>
     </row>
     <row r="26" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="41" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="17" t="s">
@@ -3166,12 +3188,14 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E85382-04FF-4EE3-8359-A2018DEA0D02}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3184,6 +3208,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A147E11-B383-49BC-99BB-E9781E9EC108}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Payroll Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Downloads\Payroll Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57845CFD-E4B2-4052-952C-FD72DF8C793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72896043-3D44-4A40-BD7E-6E705BE9BC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -2306,9 +2306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2346,7 +2346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2452,7 +2452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2594,7 +2594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2605,8 +2605,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3088,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Downloads\Payroll Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72896043-3D44-4A40-BD7E-6E705BE9BC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01737777-7F05-4DD7-8E0A-AD950C75587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
   </bookViews>
@@ -2606,7 +2606,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Downloads\Payroll Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Payroll Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01737777-7F05-4DD7-8E0A-AD950C75587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9841E-6151-4B3B-B995-BA066E18AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -2306,9 +2306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2346,7 +2346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2452,7 +2452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2594,7 +2594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2605,8 +2605,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Payroll Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9841E-6151-4B3B-B995-BA066E18AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AE1EA-9BB0-4B8C-B0FF-3FC6A036FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5D7AE60-7107-4E8B-9D94-1670F34EF379}"/>
   </bookViews>
@@ -2606,7 +2606,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
